--- a/server/fabware.xlsx
+++ b/server/fabware.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Jothika M</t>
-  </si>
-  <si>
-    <t>80988 90723</t>
-  </si>
-  <si>
-    <t>mjothi680@gmail.com</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
   <si>
     <t>Water Bottle</t>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>uploads\feedbackimage\DescriptionMainImage2.jpg</t>
-  </si>
-  <si>
-    <t>Jothi</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>jo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -150,84 +135,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -569,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -620,49 +527,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="200" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="200" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/fabware.xlsx
+++ b/server/fabware.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>jo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -135,6 +138,84 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -476,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -527,9 +608,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" ht="200" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="200" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/fabware.xlsx
+++ b/server/fabware.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>jo@gmail.com</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -232,6 +235,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -557,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -648,6 +690,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" ht="200" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
